--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ccl11-Ccr3.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ccl11-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,60 +531,60 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.760207199400496</v>
+        <v>1.086278666666667</v>
       </c>
       <c r="H2">
-        <v>0.760207199400496</v>
+        <v>3.258836</v>
       </c>
       <c r="I2">
-        <v>0.008443819413015904</v>
+        <v>0.01142600940532366</v>
       </c>
       <c r="J2">
-        <v>0.008443819413015904</v>
+        <v>0.01200515265421091</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.292531888977493</v>
+        <v>0.1323866666666667</v>
       </c>
       <c r="N2">
-        <v>0.292531888977493</v>
+        <v>0.39716</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2977240407890032</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2977240407890032</v>
       </c>
       <c r="Q2">
-        <v>0.2223848480549168</v>
+        <v>0.1438088117511111</v>
       </c>
       <c r="R2">
-        <v>0.2223848480549168</v>
+        <v>1.29427930576</v>
       </c>
       <c r="S2">
-        <v>0.008443819413015904</v>
+        <v>0.003401797690246116</v>
       </c>
       <c r="T2">
-        <v>0.008443819413015904</v>
+        <v>0.003574222558500497</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -596,57 +596,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>75.0792899343937</v>
+        <v>1.086278666666667</v>
       </c>
       <c r="H3">
-        <v>75.0792899343937</v>
+        <v>3.258836</v>
       </c>
       <c r="I3">
-        <v>0.8339252329673077</v>
+        <v>0.01142600940532366</v>
       </c>
       <c r="J3">
-        <v>0.8339252329673077</v>
+        <v>0.01200515265421091</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.292531888977493</v>
+        <v>0.3122756666666667</v>
       </c>
       <c r="N3">
-        <v>0.292531888977493</v>
+        <v>0.936827</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7022759592109968</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7022759592109967</v>
       </c>
       <c r="Q3">
-        <v>21.96308650759707</v>
+        <v>0.3392183948191111</v>
       </c>
       <c r="R3">
-        <v>21.96308650759707</v>
+        <v>3.052965553372</v>
       </c>
       <c r="S3">
-        <v>0.8339252329673077</v>
+        <v>0.008024211715077547</v>
       </c>
       <c r="T3">
-        <v>0.8339252329673077</v>
+        <v>0.008430930095710406</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7698203934965679</v>
+        <v>78.34131766666667</v>
       </c>
       <c r="H4">
-        <v>0.7698203934965679</v>
+        <v>235.023953</v>
       </c>
       <c r="I4">
-        <v>0.008550595664271503</v>
+        <v>0.8240322303590443</v>
       </c>
       <c r="J4">
-        <v>0.008550595664271503</v>
+        <v>0.8657994551309391</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.292531888977493</v>
+        <v>0.1323866666666667</v>
       </c>
       <c r="N4">
-        <v>0.292531888977493</v>
+        <v>0.39716</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.2977240407890032</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.2977240407890032</v>
       </c>
       <c r="Q4">
-        <v>0.225197013882948</v>
+        <v>10.37134590816444</v>
       </c>
       <c r="R4">
-        <v>0.225197013882948</v>
+        <v>93.34211317347999</v>
       </c>
       <c r="S4">
-        <v>0.008550595664271503</v>
+        <v>0.2453342053628693</v>
       </c>
       <c r="T4">
-        <v>0.008550595664271503</v>
+        <v>0.2577693122945005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.662053204643028</v>
+        <v>78.34131766666667</v>
       </c>
       <c r="H5">
-        <v>0.662053204643028</v>
+        <v>235.023953</v>
       </c>
       <c r="I5">
-        <v>0.007353597422153726</v>
+        <v>0.8240322303590443</v>
       </c>
       <c r="J5">
-        <v>0.007353597422153726</v>
+        <v>0.8657994551309391</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.292531888977493</v>
+        <v>0.3122756666666667</v>
       </c>
       <c r="N5">
-        <v>0.292531888977493</v>
+        <v>0.936827</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.7022759592109968</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.7022759592109967</v>
       </c>
       <c r="Q5">
-        <v>0.1936716745578277</v>
+        <v>24.46408720190345</v>
       </c>
       <c r="R5">
-        <v>0.1936716745578277</v>
+        <v>220.176784817131</v>
       </c>
       <c r="S5">
-        <v>0.007353597422153726</v>
+        <v>0.578698024996175</v>
       </c>
       <c r="T5">
-        <v>0.007353597422153726</v>
+        <v>0.6080301428364386</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,365 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.971679</v>
+      </c>
+      <c r="H6">
+        <v>2.915037</v>
+      </c>
+      <c r="I6">
+        <v>0.01022059415658427</v>
+      </c>
+      <c r="J6">
+        <v>0.01073863924961949</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.1323866666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.39716</v>
+      </c>
+      <c r="O6">
+        <v>0.2977240407890032</v>
+      </c>
+      <c r="P6">
+        <v>0.2977240407890032</v>
+      </c>
+      <c r="Q6">
+        <v>0.12863734388</v>
+      </c>
+      <c r="R6">
+        <v>1.15773609492</v>
+      </c>
+      <c r="S6">
+        <v>0.003042916591562744</v>
+      </c>
+      <c r="T6">
+        <v>0.003197151069972105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>12.7598298677212</v>
-      </c>
-      <c r="H6">
-        <v>12.7598298677212</v>
-      </c>
-      <c r="I6">
-        <v>0.1417267545332512</v>
-      </c>
-      <c r="J6">
-        <v>0.1417267545332512</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.292531888977493</v>
-      </c>
-      <c r="N6">
-        <v>0.292531888977493</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>3.732657134235917</v>
-      </c>
-      <c r="R6">
-        <v>3.732657134235917</v>
-      </c>
-      <c r="S6">
-        <v>0.1417267545332512</v>
-      </c>
-      <c r="T6">
-        <v>0.1417267545332512</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.971679</v>
+      </c>
+      <c r="H7">
+        <v>2.915037</v>
+      </c>
+      <c r="I7">
+        <v>0.01022059415658427</v>
+      </c>
+      <c r="J7">
+        <v>0.01073863924961949</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.3122756666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.936827</v>
+      </c>
+      <c r="O7">
+        <v>0.7022759592109968</v>
+      </c>
+      <c r="P7">
+        <v>0.7022759592109967</v>
+      </c>
+      <c r="Q7">
+        <v>0.303431707511</v>
+      </c>
+      <c r="R7">
+        <v>2.730885367599</v>
+      </c>
+      <c r="S7">
+        <v>0.007177677565021531</v>
+      </c>
+      <c r="T7">
+        <v>0.007541488179647389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9124406666666668</v>
+      </c>
+      <c r="H8">
+        <v>2.737322</v>
+      </c>
+      <c r="I8">
+        <v>0.009597496442717394</v>
+      </c>
+      <c r="J8">
+        <v>0.0100839589576554</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1323866666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.39716</v>
+      </c>
+      <c r="O8">
+        <v>0.2977240407890032</v>
+      </c>
+      <c r="P8">
+        <v>0.2977240407890032</v>
+      </c>
+      <c r="Q8">
+        <v>0.1207949783911111</v>
+      </c>
+      <c r="R8">
+        <v>1.08715480552</v>
+      </c>
+      <c r="S8">
+        <v>0.002857405422383906</v>
+      </c>
+      <c r="T8">
+        <v>0.003002237008023631</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9124406666666668</v>
+      </c>
+      <c r="H9">
+        <v>2.737322</v>
+      </c>
+      <c r="I9">
+        <v>0.009597496442717394</v>
+      </c>
+      <c r="J9">
+        <v>0.0100839589576554</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.3122756666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.936827</v>
+      </c>
+      <c r="O9">
+        <v>0.7022759592109968</v>
+      </c>
+      <c r="P9">
+        <v>0.7022759592109967</v>
+      </c>
+      <c r="Q9">
+        <v>0.2849330174771111</v>
+      </c>
+      <c r="R9">
+        <v>2.564397157294</v>
+      </c>
+      <c r="S9">
+        <v>0.006740091020333489</v>
+      </c>
+      <c r="T9">
+        <v>0.007081721949631771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>13.75898</v>
+      </c>
+      <c r="H10">
+        <v>27.51796</v>
+      </c>
+      <c r="I10">
+        <v>0.1447236696363304</v>
+      </c>
+      <c r="J10">
+        <v>0.101372794007575</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.1323866666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.39716</v>
+      </c>
+      <c r="O10">
+        <v>0.2977240407890032</v>
+      </c>
+      <c r="P10">
+        <v>0.2977240407890032</v>
+      </c>
+      <c r="Q10">
+        <v>1.821505498933333</v>
+      </c>
+      <c r="R10">
+        <v>10.9290329936</v>
+      </c>
+      <c r="S10">
+        <v>0.04308771572194106</v>
+      </c>
+      <c r="T10">
+        <v>0.03018111785800646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>13.75898</v>
+      </c>
+      <c r="H11">
+        <v>27.51796</v>
+      </c>
+      <c r="I11">
+        <v>0.1447236696363304</v>
+      </c>
+      <c r="J11">
+        <v>0.101372794007575</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3122756666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.936827</v>
+      </c>
+      <c r="O11">
+        <v>0.7022759592109968</v>
+      </c>
+      <c r="P11">
+        <v>0.7022759592109967</v>
+      </c>
+      <c r="Q11">
+        <v>4.296594652153334</v>
+      </c>
+      <c r="R11">
+        <v>25.77956791292</v>
+      </c>
+      <c r="S11">
+        <v>0.1016359539143894</v>
+      </c>
+      <c r="T11">
+        <v>0.07119167614956848</v>
       </c>
     </row>
   </sheetData>
